--- a/DataMahasiswa.xlsx
+++ b/DataMahasiswa.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Alamat</t>
   </si>
   <si>
-    <t xml:space="preserve">Ahmad Waluyo</t>
+    <t xml:space="preserve">Ahmad Baihaqi</t>
   </si>
   <si>
     <t xml:space="preserve">Kebumen</t>
@@ -158,7 +158,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
